--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>fluxes</t>
   </si>
@@ -584,6 +584,147 @@
   </si>
   <si>
     <t>ATP_BIOMASS</t>
+  </si>
+  <si>
+    <t>EX__3hb_e</t>
+  </si>
+  <si>
+    <t>3-Hydroxybutyrate_export</t>
+  </si>
+  <si>
+    <t>HACT</t>
+  </si>
+  <si>
+    <t>SUCOASc</t>
+  </si>
+  <si>
+    <t>SUCD1</t>
+  </si>
+  <si>
+    <t>AKGDc</t>
+  </si>
+  <si>
+    <t>PPCKc</t>
+  </si>
+  <si>
+    <t>OADDC</t>
+  </si>
+  <si>
+    <t>OORr</t>
+  </si>
+  <si>
+    <t>4HBCOADH</t>
+  </si>
+  <si>
+    <t>GHBCOAT</t>
+  </si>
+  <si>
+    <t>GHBDHx</t>
+  </si>
+  <si>
+    <t>SSALx</t>
+  </si>
+  <si>
+    <t>DHAPT</t>
+  </si>
+  <si>
+    <t>DHAK</t>
+  </si>
+  <si>
+    <t>ALDD2x</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>GLCpts</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>MGSA</t>
+  </si>
+  <si>
+    <t>ALCD22_L</t>
+  </si>
+  <si>
+    <t>ACCOAC</t>
+  </si>
+  <si>
+    <t>PPCOAC</t>
+  </si>
+  <si>
+    <t>LCADi</t>
+  </si>
+  <si>
+    <t>LacR</t>
+  </si>
+  <si>
+    <t>SUCOAACTr</t>
+  </si>
+  <si>
+    <t>SSALy</t>
+  </si>
+  <si>
+    <t>PPGPT</t>
+  </si>
+  <si>
+    <t>POR_syn</t>
+  </si>
+  <si>
+    <t>MRN</t>
+  </si>
+  <si>
+    <t>LGTHL</t>
+  </si>
+  <si>
+    <t>GLYOX</t>
+  </si>
+  <si>
+    <t>OCOAT1</t>
+  </si>
+  <si>
+    <t>G6PI</t>
+  </si>
+  <si>
+    <t>G6PDH2r</t>
+  </si>
+  <si>
+    <t>PGL</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>GND_nad</t>
+  </si>
+  <si>
+    <t>RBK</t>
+  </si>
+  <si>
+    <t>DRPA</t>
+  </si>
+  <si>
+    <t>DRBK</t>
+  </si>
+  <si>
+    <t>AH6PI</t>
+  </si>
+  <si>
+    <t>H6PS</t>
+  </si>
+  <si>
+    <t>ALDD1</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>PDHa</t>
+  </si>
+  <si>
+    <t>PDH2c</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1987548997002523</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1053,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.01533615367523077</v>
+        <v>0.08900161401890451</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1061,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.01533615367523077</v>
+        <v>0.06133271846898897</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1069,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0006970978943286708</v>
+        <v>-0.1097532856813478</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1077,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.0006970978943286708</v>
+        <v>-0.1097532856813478</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1085,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.01603325156955944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1101,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.1989854738298356</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1117,7 +1258,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.1989854738298356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1125,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9891252728484727</v>
+        <v>0.8962416416878063</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1133,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1650910767811864</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1141,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.973789119173242</v>
+        <v>0.661517177772655</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1149,7 +1290,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.973789119173242</v>
+        <v>0.661517177772655</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1157,7 +1298,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.973789119173242</v>
+        <v>0.6615171777726548</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1165,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.865460106394566</v>
+        <v>1.3032049804012</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1173,7 +1314,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.865460106394566</v>
+        <v>-1.3032049804012</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1181,7 +1322,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.810668211900333</v>
+        <v>-1.121973714549228</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1189,7 +1330,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.810668211900333</v>
+        <v>1.121973714549228</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1197,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.713632185009782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1205,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.05855622312360838</v>
+        <v>-0.1936822688494352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1221,7 +1362,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.060364320787035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1245,7 +1386,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3.848869718307372e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1261,7 +1402,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.01212950336131888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1269,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.01798512567367971</v>
+        <v>-0.3638459764814387</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1285,7 +1426,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.01798512567367971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1301,7 +1442,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.5307180543997659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1333,7 +1474,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6.938893903907228e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1341,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1381,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1389,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1397,7 +1538,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1405,7 +1546,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1445,7 +1586,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1453,7 +1594,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1461,7 +1602,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1469,7 +1610,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6.938893903907228e-18</v>
+        <v>2.076827082402001e-17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1493,7 +1634,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>6.938893903907228e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1509,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.060364320786997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1517,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.060364320786997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1525,7 +1666,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.060364320786997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1533,7 +1674,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.060364320786997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1557,7 +1698,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.3209874391673109</v>
+        <v>0.1106755821996772</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1565,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.1196219986668</v>
+        <v>0.1618630389670279</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1741,7 +1882,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.4233341019137652</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1885,7 +2026,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.5307180543997659</v>
+        <v>3.13211897625088</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1893,7 +2034,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.1401428179311051</v>
+        <v>0.2925985704404002</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1901,7 +2042,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-1.718755854533078</v>
+        <v>-4.624855891169015</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1909,7 +2050,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.718755854533078</v>
+        <v>4.624855891169015</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1917,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.511194956496735</v>
+        <v>-2.119437399123833</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1925,7 +2066,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.7277179193370484</v>
+        <v>3.310338114737022e-15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1933,7 +2074,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.7277179193370484</v>
+        <v>-3.310338114737022e-15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1957,7 +2098,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.2348261394282872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1965,7 +2106,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.1858898672464145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1973,7 +2114,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.04893627218187272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1981,7 +2122,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.1350975719208965</v>
+        <v>-0.1106755821996772</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2013,7 +2154,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.1858898672464145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2021,7 +2162,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.1858898672464145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2029,7 +2170,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-2.498001805406602e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2037,7 +2178,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.8110036902619761</v>
+        <v>2.54692183537008</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2045,7 +2186,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.3605390309467887</v>
+        <v>-1.192529398201522</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2053,7 +2194,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.3605390309467887</v>
+        <v>1.192529398201522</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2061,7 +2202,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.008783433468541258</v>
+        <v>-0.02905234032741527</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2069,7 +2210,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.008783433468541258</v>
+        <v>0.02905234032741527</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2085,7 +2226,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.1982546411470741</v>
+        <v>0.6557528245330877</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2093,7 +2234,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.03597025134735943</v>
+        <v>-0.118976250864653</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2101,7 +2242,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.03597025134735943</v>
+        <v>0.118976250864653</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2117,7 +2258,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.04182587365972028</v>
+        <v>0.1383444777495965</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2125,7 +2266,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.04182587365972028</v>
+        <v>0.1383444777495965</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2149,7 +2290,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.01212950336131888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2181,7 +2322,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.060364320786997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2253,7 +2394,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-6.938893903907228e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2277,7 +2418,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>3.848869718307372e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2301,7 +2442,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.0662678685796145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2309,7 +2450,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-0.0662678685796145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2325,7 +2466,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>2.119437399123833</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2333,7 +2474,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.438701132348381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2429,7 +2570,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.645874269681035</v>
+        <v>4.687802628545076</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2461,7 +2602,383 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-1.50573145174993</v>
+        <v>-4.980401198985476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>-3.687572054415492</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>-1.727922527092468</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>-0.3956652063638461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1.56605948812544</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2.076827082402001e-17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>-2.076827082402001e-17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>-2.076827082402001e-17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>-0.4233341019137652</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>0.8010145261701643</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>-3.84943509338252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>-2.076827082402001e-17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>0.06778879409729863</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>0.06778879409729863</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>0.06778879409729863</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>0.06778879409729863</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>-0.04011989854738299</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>-0.04011989854738299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>-0.04011989854738299</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>fluxes</t>
   </si>
@@ -568,6 +568,9 @@
     <t>Ethanol_Transport_ATP</t>
   </si>
   <si>
+    <t>Succinate_Transport_ATP</t>
+  </si>
+  <si>
     <t>Proton_Transport_ATP</t>
   </si>
   <si>
@@ -725,6 +728,24 @@
   </si>
   <si>
     <t>PDH2c</t>
+  </si>
+  <si>
+    <t>ICDHyr</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>G3PD2</t>
+  </si>
+  <si>
+    <t>HACD1a</t>
+  </si>
+  <si>
+    <t>MTHFR3_1</t>
+  </si>
+  <si>
+    <t>LDH_L</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1987548997002523</v>
+        <v>0.1987548997002539</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1194,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.08900161401890451</v>
+        <v>0.08900161401890783</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1202,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.06133271846898897</v>
+        <v>0.06133271846898729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1210,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.1097532856813478</v>
+        <v>-0.1097532856813461</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1218,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.1097532856813478</v>
+        <v>-0.1097532856813461</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1242,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1989854738298356</v>
+        <v>0.1989854738298367</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1258,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.1989854738298356</v>
+        <v>0.1989854738298367</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1266,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.8962416416878063</v>
+        <v>0.8962416416878014</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1274,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.1650910767811864</v>
+        <v>0.1650910767811847</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1282,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.661517177772655</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1290,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.661517177772655</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1298,7 +1319,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.6615171777726548</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1306,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.3032049804012</v>
+        <v>1.303204980401199</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1314,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.3032049804012</v>
+        <v>-1.303204980401199</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1322,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.121973714549228</v>
+        <v>-1.121973714549227</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1330,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.121973714549228</v>
+        <v>1.121973714549227</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1346,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1936822688494352</v>
+        <v>-0.1936822688494353</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1410,7 +1431,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.3638459764814387</v>
+        <v>-0.3638459764814386</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1482,7 +1503,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1522,7 +1543,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1530,7 +1551,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1538,7 +1559,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1546,7 +1567,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1586,7 +1607,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1594,7 +1615,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1602,7 +1623,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1610,7 +1631,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1682,7 +1703,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-2.465190328815662e-32</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1698,7 +1719,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.1106755821996772</v>
+        <v>0.110675582199677</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1706,7 +1727,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.1618630389670279</v>
+        <v>0.1618630389670278</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1722,7 +1743,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1730,7 +1751,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1738,7 +1759,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1746,7 +1767,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1754,7 +1775,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1762,7 +1783,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1802,7 +1823,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1882,7 +1903,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.4233341019137652</v>
+        <v>0.4233341019137651</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2026,7 +2047,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>3.13211897625088</v>
+        <v>3.132118976250859</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2034,7 +2055,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.2925985704404002</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2042,7 +2063,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-4.624855891169015</v>
+        <v>-4.62485589116901</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2050,7 +2071,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4.624855891169015</v>
+        <v>4.62485589116901</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2058,7 +2079,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-2.119437399123833</v>
+        <v>-2.119437399123813</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2066,7 +2087,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3.310338114737022e-15</v>
+        <v>-1.203759314449826e-15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2074,7 +2095,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-3.310338114737022e-15</v>
+        <v>1.203759314449826e-15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2114,7 +2135,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-1.850371707708594e-17</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2122,7 +2143,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.1106755821996772</v>
+        <v>-0.110675582199677</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2162,7 +2183,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1.850371707708594e-17</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2170,7 +2191,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-2.498001805406602e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2178,7 +2199,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.54692183537008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2202,7 +2223,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02905234032741527</v>
+        <v>-0.02905234032741526</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2210,7 +2231,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02905234032741527</v>
+        <v>0.02905234032741526</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2226,7 +2247,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.6557528245330877</v>
+        <v>0.6557528245330874</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2234,7 +2255,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.118976250864653</v>
+        <v>-0.1189762508646541</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2242,7 +2263,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.118976250864653</v>
+        <v>0.1189762508646541</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2466,7 +2487,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.119437399123833</v>
+        <v>2.119437399123813</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2570,7 +2591,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4.687802628545076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2578,7 +2599,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>3.414341710860045</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2602,7 +2623,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-4.980401198985476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2610,7 +2631,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-4.980401198985474</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2634,7 +2655,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-3.687572054415492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2642,7 +2663,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>-2.414111136730463</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2650,7 +2671,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.727922527092468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2658,7 +2679,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>-1.727922527092457</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2666,7 +2687,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.3956652063638461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2674,7 +2695,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.56605948812544</v>
+        <v>-0.3956652063638459</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2682,7 +2703,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2.076827082402001e-17</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2690,7 +2711,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2698,7 +2719,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2730,7 +2751,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.4233341019137652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2738,7 +2759,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>-0.4233341019137651</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2746,7 +2767,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.8010145261701643</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2754,7 +2775,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-3.84943509338252</v>
+        <v>0.8010145261701633</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2762,7 +2783,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>-2.57597417569749</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2778,7 +2799,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-2.546921835370068</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2794,7 +2815,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1.228745796218758e-16</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2802,7 +2823,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>-1.110223024625156e-16</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2818,7 +2839,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-2.076827082402001e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2850,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>2.546921835370068</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2874,7 +2895,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.06778879409729863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2882,7 +2903,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.06778879409729863</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2890,7 +2911,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.06778879409729863</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2898,7 +2919,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.06778879409729863</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2906,7 +2927,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2938,7 +2959,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>-0.04011989854738299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2946,7 +2967,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.04011989854738299</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2954,7 +2975,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.04011989854738299</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2962,7 +2983,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2979,6 +3000,62 @@
       </c>
       <c r="B237">
         <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>fluxes</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Succinate_import</t>
+  </si>
+  <si>
+    <t>Succinate_export</t>
   </si>
   <si>
     <t>H_import</t>
@@ -1103,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2487,7 +2490,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.119437399123813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2495,7 +2498,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>2.119437399123813</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2599,7 +2602,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>3.414341710860045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2607,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>3.414341710860045</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2631,7 +2634,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-4.980401198985474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2639,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-4.980401198985474</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2663,7 +2666,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-2.414111136730463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2671,7 +2674,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-2.414111136730463</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2679,7 +2682,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-1.727922527092457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2687,7 +2690,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>-1.727922527092457</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2695,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3956652063638459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2703,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.566059488125429</v>
+        <v>-0.3956652063638459</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2711,7 +2714,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2759,7 +2762,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.4233341019137651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2767,7 +2770,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-1.228745796218758e-16</v>
+        <v>-0.4233341019137651</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2775,7 +2778,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.8010145261701633</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2783,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-2.57597417569749</v>
+        <v>0.8010145261701633</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2791,7 +2794,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>-2.57597417569749</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2799,7 +2802,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-2.546921835370068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2807,7 +2810,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>-2.546921835370068</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2815,7 +2818,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.228745796218758e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2823,7 +2826,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.110223024625156e-16</v>
+        <v>1.228745796218758e-16</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2831,7 +2834,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>-1.110223024625156e-16</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2871,7 +2874,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2.546921835370068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2879,7 +2882,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>2.546921835370068</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2903,7 +2906,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.06778879409730348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2935,7 +2938,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2967,7 +2970,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.04011989854738298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2991,7 +2994,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3055,6 +3058,14 @@
         <v>243</v>
       </c>
       <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
         <v>-1.110223024625157e-16</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>fluxes</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>Succinate_import</t>
-  </si>
-  <si>
-    <t>Succinate_export</t>
   </si>
   <si>
     <t>H_import</t>
@@ -1106,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2490,7 +2487,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>2.119437399123813</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2498,7 +2495,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2.119437399123813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2602,7 +2599,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>3.414341710860045</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2610,7 +2607,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>3.414341710860045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2634,7 +2631,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-4.980401198985474</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2642,7 +2639,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.980401198985474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2666,7 +2663,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>-2.414111136730463</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2674,7 +2671,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-2.414111136730463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2682,7 +2679,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>-1.727922527092457</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2690,7 +2687,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-1.727922527092457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2698,7 +2695,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>-0.3956652063638459</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2706,7 +2703,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.3956652063638459</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2714,7 +2711,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1.566059488125429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2762,7 +2759,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>-0.4233341019137651</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2770,7 +2767,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.4233341019137651</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2778,7 +2775,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-1.228745796218758e-16</v>
+        <v>0.8010145261701633</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2786,7 +2783,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.8010145261701633</v>
+        <v>-2.57597417569749</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2794,7 +2791,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-2.57597417569749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2802,7 +2799,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-2.546921835370068</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2810,7 +2807,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-2.546921835370068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2818,7 +2815,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1.228745796218758e-16</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2826,7 +2823,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1.228745796218758e-16</v>
+        <v>-1.110223024625156e-16</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2834,7 +2831,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-1.110223024625156e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2874,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>2.546921835370068</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2882,7 +2879,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>2.546921835370068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2906,7 +2903,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2938,7 +2935,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.06778879409730348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2970,7 +2967,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2994,7 +2991,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-0.04011989854738298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3058,14 +3055,6 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245">
         <v>-1.110223024625157e-16</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>fluxes</t>
   </si>
@@ -532,6 +532,9 @@
     <t>Succinate_import</t>
   </si>
   <si>
+    <t>Succinate_export</t>
+  </si>
+  <si>
     <t>H_import</t>
   </si>
   <si>
@@ -746,6 +749,24 @@
   </si>
   <si>
     <t>LDH_L</t>
+  </si>
+  <si>
+    <t>MTHFD</t>
+  </si>
+  <si>
+    <t>THDF</t>
+  </si>
+  <si>
+    <t>FNOR</t>
+  </si>
+  <si>
+    <t>FMNRy_1</t>
+  </si>
+  <si>
+    <t>NADFADOR</t>
+  </si>
+  <si>
+    <t>FMNRx</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1987548997002539</v>
+        <v>0.1152355700591482</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1215,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.08900161401890783</v>
+        <v>0.1152355700591481</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1223,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.06133271846898729</v>
+        <v>-0.04283091984499286</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1231,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.1097532856813461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1239,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.1097532856813461</v>
+        <v>-4.85722573273506e-17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1263,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1989854738298367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1279,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.1989854738298367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1287,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.8962416416878014</v>
+        <v>0.7746277789108812</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1295,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.1650910767811847</v>
+        <v>0.04894962267999184</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1303,7 +1324,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.6615171777726536</v>
+        <v>0.7611666326738724</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1311,7 +1332,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.6615171777726536</v>
+        <v>0.7611666326738724</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1319,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.6615171777726536</v>
+        <v>0.7611666326738724</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1327,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.303204980401199</v>
+        <v>1.444217825820925</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1335,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.303204980401199</v>
+        <v>-1.444217825820925</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1343,7 +1364,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.121973714549227</v>
+        <v>-1.283907811543952</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1351,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.121973714549227</v>
+        <v>1.283907811543952</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1367,7 +1388,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1936822688494353</v>
+        <v>-0.1713236793799708</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1423,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1.088684697947429e-14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1431,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.3638459764814386</v>
+        <v>-0.16418519273914</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1703,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-2.465190328815662e-32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1719,7 +1740,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.110675582199677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1727,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.1618630389670278</v>
+        <v>0.009382011013663297</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1743,7 +1764,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1.228745796218758e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1751,7 +1772,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1.228745796218758e-16</v>
+        <v>1.665334536937735e-16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1759,7 +1780,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1.228745796218757e-16</v>
+        <v>1.665334536937735e-16</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1767,7 +1788,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1.228745796218757e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1775,7 +1796,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1.228745796218757e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1783,7 +1804,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.228745796218757e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1823,7 +1844,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-1.228745796218757e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1903,7 +1924,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.4233341019137651</v>
+        <v>0.2168060371201312</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2047,7 +2068,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>3.132118976250859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2055,7 +2076,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.566059488125429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2063,7 +2084,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-4.62485589116901</v>
+        <v>-3.398327554558423</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2071,7 +2092,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4.62485589116901</v>
+        <v>3.398327554558423</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2079,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-2.119437399123813</v>
+        <v>1.088684697947429e-14</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2087,7 +2108,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-1.203759314449826e-15</v>
+        <v>-0.6926371609218784</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2095,7 +2116,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.203759314449826e-15</v>
+        <v>0.6926371609218784</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2119,7 +2140,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.1337956353253127</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2127,7 +2148,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.1337956353253127</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2135,7 +2156,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.850371707708594e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2143,7 +2164,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.110675582199677</v>
+        <v>0.03589638996532911</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2183,7 +2204,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.850371707708594e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2207,7 +2228,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.192529398201522</v>
+        <v>-1.054864368753823</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2215,7 +2236,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.192529398201522</v>
+        <v>1.054864368753823</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2223,7 +2244,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02905234032741526</v>
+        <v>-0.02569855190699569</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2231,7 +2252,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02905234032741526</v>
+        <v>0.02569855190699569</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2247,7 +2268,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.6557528245330874</v>
+        <v>0.5800530287579028</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2255,7 +2276,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1189762508646541</v>
+        <v>-0.105241688761982</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2263,7 +2284,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1189762508646541</v>
+        <v>0.105241688761982</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2279,7 +2300,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1383444777495965</v>
+        <v>0.1223740566999795</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2287,7 +2308,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1383444777495965</v>
+        <v>0.1223740566999795</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2311,7 +2332,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1.088684697947429e-14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2487,7 +2508,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.119437399123813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2599,7 +2620,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>3.414341710860045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2607,7 +2628,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>4.405466041199261</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2631,7 +2652,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-4.980401198985474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2639,7 +2660,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-4.405466041199261</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2663,7 +2684,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-2.414111136730463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2671,7 +2692,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-3.386905975933097</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2679,7 +2700,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-1.727922527092457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2687,7 +2708,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>-0.1780542524984747</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2695,7 +2716,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3956652063638459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2703,7 +2724,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.566059488125429</v>
+        <v>-0.3858861921272703</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2711,7 +2732,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>0.1686722414848114</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2759,7 +2780,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.4233341019137651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2767,7 +2788,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-1.228745796218758e-16</v>
+        <v>-0.2168060371201312</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2775,7 +2796,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.8010145261701633</v>
+        <v>1.665334536937735e-16</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2783,7 +2804,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-2.57597417569749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2791,7 +2812,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>-3.39628798694676</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2799,7 +2820,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-2.546921835370068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2815,7 +2836,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.228745796218758e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2823,7 +2844,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.110223024625156e-16</v>
+        <v>-1.665334536937735e-16</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2871,7 +2892,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2.546921835370068</v>
+        <v>0.2914542117071188</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2903,7 +2924,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.06778879409730348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2911,7 +2932,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.06778879409730348</v>
+        <v>0.1935549663471241</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2919,7 +2940,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.06778879409730348</v>
+        <v>0.1935549663471241</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2927,7 +2948,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.06778879409730348</v>
+        <v>0.1935549663471241</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2935,7 +2956,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>0.1935549663471241</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2967,7 +2988,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.04011989854738298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2975,7 +2996,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.04011989854738298</v>
+        <v>-0.03548847644298316</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2983,7 +3004,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>-0.04011989854738298</v>
+        <v>-0.03548847644298316</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2991,7 +3012,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>-0.03548847644298316</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3023,7 +3044,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.1337956353253127</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3031,7 +3052,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>0.03589638996532911</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3055,7 +3076,63 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1.355904548235782</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>-0.8957780950438519</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>fluxes</t>
   </si>
@@ -532,9 +532,6 @@
     <t>Succinate_import</t>
   </si>
   <si>
-    <t>Succinate_export</t>
-  </si>
-  <si>
     <t>H_import</t>
   </si>
   <si>
@@ -749,24 +746,6 @@
   </si>
   <si>
     <t>LDH_L</t>
-  </si>
-  <si>
-    <t>MTHFD</t>
-  </si>
-  <si>
-    <t>THDF</t>
-  </si>
-  <si>
-    <t>FNOR</t>
-  </si>
-  <si>
-    <t>FMNRy_1</t>
-  </si>
-  <si>
-    <t>NADFADOR</t>
-  </si>
-  <si>
-    <t>FMNRx</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.1152355700591482</v>
+        <v>0.1987548997002539</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1236,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.1152355700591481</v>
+        <v>0.08900161401890783</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1244,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.04283091984499286</v>
+        <v>0.06133271846898729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1252,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.1097532856813461</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1260,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-4.85722573273506e-17</v>
+        <v>-0.1097532856813461</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1284,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.1989854738298367</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1300,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.1989854738298367</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1308,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7746277789108812</v>
+        <v>0.8962416416878014</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1316,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.04894962267999184</v>
+        <v>0.1650910767811847</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1324,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.7611666326738724</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.7611666326738724</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1319,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.7611666326738724</v>
+        <v>0.6615171777726536</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1348,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.444217825820925</v>
+        <v>1.303204980401199</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1356,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.444217825820925</v>
+        <v>-1.303204980401199</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1343,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.283907811543952</v>
+        <v>-1.121973714549227</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1372,7 +1351,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.283907811543952</v>
+        <v>1.121973714549227</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1388,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1713236793799708</v>
+        <v>-0.1936822688494353</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1444,7 +1423,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.088684697947429e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1452,7 +1431,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.16418519273914</v>
+        <v>-0.3638459764814386</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1724,7 +1703,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-2.465190328815662e-32</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1740,7 +1719,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.110675582199677</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1748,7 +1727,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.009382011013663297</v>
+        <v>0.1618630389670278</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1764,7 +1743,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1772,7 +1751,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.665334536937735e-16</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1780,7 +1759,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.665334536937735e-16</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1788,7 +1767,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1796,7 +1775,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1804,7 +1783,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1844,7 +1823,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-1.228745796218757e-16</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1924,7 +1903,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.2168060371201312</v>
+        <v>0.4233341019137651</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2068,7 +2047,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>3.132118976250859</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2076,7 +2055,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2084,7 +2063,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.398327554558423</v>
+        <v>-4.62485589116901</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2092,7 +2071,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.398327554558423</v>
+        <v>4.62485589116901</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2100,7 +2079,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.088684697947429e-14</v>
+        <v>-2.119437399123813</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2108,7 +2087,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6926371609218784</v>
+        <v>-1.203759314449826e-15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2116,7 +2095,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6926371609218784</v>
+        <v>1.203759314449826e-15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2140,7 +2119,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1337956353253127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2148,7 +2127,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.1337956353253127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2156,7 +2135,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-1.850371707708594e-17</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2164,7 +2143,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.03589638996532911</v>
+        <v>-0.110675582199677</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2204,7 +2183,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1.850371707708594e-17</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2228,7 +2207,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.054864368753823</v>
+        <v>-1.192529398201522</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2236,7 +2215,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.054864368753823</v>
+        <v>1.192529398201522</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2244,7 +2223,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02569855190699569</v>
+        <v>-0.02905234032741526</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2252,7 +2231,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02569855190699569</v>
+        <v>0.02905234032741526</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2268,7 +2247,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5800530287579028</v>
+        <v>0.6557528245330874</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2276,7 +2255,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.105241688761982</v>
+        <v>-0.1189762508646541</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2284,7 +2263,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.105241688761982</v>
+        <v>0.1189762508646541</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2300,7 +2279,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1223740566999795</v>
+        <v>0.1383444777495965</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2287,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1223740566999795</v>
+        <v>0.1383444777495965</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2332,7 +2311,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.088684697947429e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2508,7 +2487,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>2.119437399123813</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2620,7 +2599,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>3.414341710860045</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2628,7 +2607,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.405466041199261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2652,7 +2631,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-4.980401198985474</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2660,7 +2639,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.405466041199261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2684,7 +2663,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>-2.414111136730463</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2692,7 +2671,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-3.386905975933097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2700,7 +2679,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>-1.727922527092457</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2708,7 +2687,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.1780542524984747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2716,7 +2695,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>-0.3956652063638459</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2724,7 +2703,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.3858861921272703</v>
+        <v>1.566059488125429</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2732,7 +2711,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.1686722414848114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2780,7 +2759,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>-0.4233341019137651</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2788,7 +2767,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.2168060371201312</v>
+        <v>-1.228745796218758e-16</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2796,7 +2775,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.665334536937735e-16</v>
+        <v>0.8010145261701633</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2804,7 +2783,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>-2.57597417569749</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2812,7 +2791,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-3.39628798694676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2820,7 +2799,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-2.546921835370068</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2836,7 +2815,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1.228745796218758e-16</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2844,7 +2823,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.665334536937735e-16</v>
+        <v>-1.110223024625156e-16</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2892,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.2914542117071188</v>
+        <v>2.546921835370068</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2924,7 +2903,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2932,7 +2911,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.1935549663471241</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2940,7 +2919,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.1935549663471241</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2948,7 +2927,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.1935549663471241</v>
+        <v>0.06778879409730348</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2956,7 +2935,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.1935549663471241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2988,7 +2967,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2996,7 +2975,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.03548847644298316</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3004,7 +2983,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>-0.03548847644298316</v>
+        <v>-0.04011989854738298</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3012,7 +2991,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-0.03548847644298316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3044,7 +3023,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.1337956353253127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3052,7 +3031,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.03589638996532911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3076,63 +3055,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247">
-        <v>1.355904548235782</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248">
-        <v>-0.8957780950438519</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
+        <v>-1.110223024625157e-16</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fluxes</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>FMNRx</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.04283091984499286</v>
+        <v>-0.04283091984499278</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1260,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-4.85722573273506e-17</v>
+        <v>-3.469446951953614e-17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1276,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>-0.9999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1308,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7746277789108812</v>
+        <v>0.810116255353863</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1316,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.04894962267999184</v>
+        <v>0.04894962267999181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1324,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.7611666326738724</v>
+        <v>0.7611666326738712</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.7611666326738724</v>
+        <v>0.7611666326738712</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.7611666326738724</v>
+        <v>0.7611666326738712</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1348,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.444217825820925</v>
+        <v>1.444217825820923</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1356,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.444217825820925</v>
+        <v>-1.444217825820923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.283907811543952</v>
+        <v>-1.28390781154395</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1372,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.283907811543952</v>
+        <v>1.28390781154395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1388,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1713236793799708</v>
+        <v>-0.1713236793799702</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1444,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.088684697947429e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1452,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.16418519273914</v>
+        <v>-0.1641851927391399</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1748,7 +1754,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.009382011013663297</v>
+        <v>0.009382011013665058</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1772,7 +1778,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.665334536937735e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1780,7 +1786,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.665334536937735e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1924,7 +1930,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.2168060371201312</v>
+        <v>0.2168060371201311</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2004,7 +2010,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.03548847644299404</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2084,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.398327554558423</v>
+        <v>-3.398327554558425</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2092,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.398327554558423</v>
+        <v>3.398327554558425</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2100,7 +2106,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.088684697947429e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2108,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6926371609218784</v>
+        <v>-0.6926371609218837</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2116,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6926371609218784</v>
+        <v>0.6926371609218837</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2140,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1337956353253127</v>
+        <v>0.1337956353253109</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2148,7 +2154,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.1337956353253127</v>
+        <v>0.1337956353253109</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2164,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.03589638996532911</v>
+        <v>0.03589638996532733</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2212,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-2.099936499962377e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2244,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02569855190699569</v>
+        <v>-0.02569855190699568</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2252,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02569855190699569</v>
+        <v>0.02569855190699568</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2268,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5800530287579028</v>
+        <v>0.5800530287579025</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2276,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.105241688761982</v>
+        <v>-0.1052416887619796</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2284,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.105241688761982</v>
+        <v>0.1052416887619796</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2300,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1223740566999795</v>
+        <v>0.1223740566999794</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1223740566999795</v>
+        <v>0.1223740566999794</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2332,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.088684697947429e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2628,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.405466041199261</v>
+        <v>4.405466041199258</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2660,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.405466041199261</v>
+        <v>-4.40546604119926</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2692,7 +2698,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-3.386905975933097</v>
+        <v>-3.386905975933096</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2708,7 +2714,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.1780542524984747</v>
+        <v>-0.2135427289414625</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2724,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.3858861921272703</v>
+        <v>-0.3858861921272685</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2732,7 +2738,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.1686722414848114</v>
+        <v>0.2041607179277974</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2788,7 +2794,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.2168060371201312</v>
+        <v>-0.2168060371201311</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2796,7 +2802,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.665334536937735e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2812,7 +2818,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-3.39628798694676</v>
+        <v>-3.396287986946761</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2844,7 +2850,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.665334536937735e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2892,7 +2898,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.2914542117071188</v>
+        <v>0.2914542117071169</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2932,7 +2938,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.1935549663471241</v>
+        <v>0.1580664899041409</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2940,7 +2946,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.1935549663471241</v>
+        <v>0.1580664899041409</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2948,7 +2954,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.1935549663471241</v>
+        <v>0.1580664899041409</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2956,7 +2962,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.1935549663471241</v>
+        <v>0.1580664899041409</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2996,7 +3002,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.03548847644298316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3004,7 +3010,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>-0.03548847644298316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3012,7 +3018,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-0.03548847644298316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3044,7 +3050,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.1337956353253127</v>
+        <v>0.1337956353253109</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3052,7 +3058,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.03589638996532911</v>
+        <v>0.03589638996532733</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1.355904548235782</v>
+        <v>1.391393024678767</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.8957780950438519</v>
+        <v>-0.8957780950438525</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3132,6 +3138,22 @@
         <v>250</v>
       </c>
       <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
         <v>0</v>
       </c>
     </row>
